--- a/output/auc_report.xlsx
+++ b/output/auc_report.xlsx
@@ -12,9 +12,6 @@
     <sheet name="class 3" sheetId="3" r:id="rId3"/>
     <sheet name="class 4" sheetId="4" r:id="rId4"/>
     <sheet name="class 5" sheetId="5" r:id="rId5"/>
-    <sheet name="class 6" sheetId="6" r:id="rId6"/>
-    <sheet name="class 7" sheetId="7" r:id="rId7"/>
-    <sheet name="class 8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -347,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -355,7 +352,502 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>0.8627450980392156</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>0.98125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>0.990625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>0.9937499999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>0.975</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>0.9874999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>0.984375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>0.975</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>0.996875</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>0.9718749999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -365,7 +857,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -373,7 +865,502 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>0.588235294117647</v>
+        <v>0.69375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>0.7562500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>0.80625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>0.7531249999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>0.846875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>0.8374999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>0.8875000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>0.771875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>0.703125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>0.9156249999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>0.865625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>0.88125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>0.828125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>0.884375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>0.846875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>0.73125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>0.9125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>0.778125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>0.946875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>0.8375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>0.646875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>0.759375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>0.7875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>0.7875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>0.7750000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>0.8875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>0.775</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>0.921875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>0.8468749999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>0.9031250000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>0.696875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>0.9125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>0.709375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>0.796875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>0.809375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>0.83125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>0.640625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>0.89375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>0.853125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>0.909375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>0.89375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>0.909375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>0.8031250000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>0.91875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>0.9031250000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>0.88125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>0.9093749999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>0.8468749999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>0.796875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>0.7125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>0.728125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>0.8625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>0.859375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>0.83125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>0.9156249999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>0.696875</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>0.93125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>0.8343750000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>0.86875</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>0.771875</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>0.809375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>0.715625</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>0.79375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>0.7562500000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>0.8968750000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>0.784375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>0.665625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>0.621875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>0.8312499999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>0.6187500000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>0.68125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>0.8375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>0.728125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>0.834375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>0.7218749999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>0.703125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>0.61875</v>
       </c>
     </row>
   </sheetData>
@@ -383,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -391,7 +1378,502 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>0.2222222222222222</v>
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>0.951171875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>0.8984375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>0.86328125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>0.93359375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>0.908203125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>0.935546875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>0.91796875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>0.94921875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>0.947265625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>0.890625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>0.947265625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>0.921875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>0.919921875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>0.91796875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>0.947265625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>0.896484375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>0.99609375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>0.935546875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>0.958984375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>0.908203125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>0.892578125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>0.943359375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>0.974609375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>0.900390625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>0.939453125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>0.916015625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>0.888671875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>0.908203125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>0.916015625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>0.935546875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>0.958984375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>0.955078125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>0.94140625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>0.912109375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>0.935546875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>0.900390625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>0.93359375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>0.892578125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>0.978515625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>0.9296875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>0.951171875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>0.927734375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>0.91015625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>0.919921875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>0.947265625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>0.923828125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>0.91796875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>0.87890625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>0.91796875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>0.916015625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>0.904296875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>0.93359375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>0.91015625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>0.962890625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>0.916015625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>0.94140625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>0.912109375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>0.94140625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>0.916015625</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>0.935546875</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>0.951171875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>0.83984375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>0.955078125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>0.970703125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>0.943359375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>0.966796875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>0.943359375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>0.9296875</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>0.880859375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>0.935546875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>0.9296875</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>0.935546875</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>0.919921875</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>0.943359375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>0.94921875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>0.923828125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>0.9609375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>0.908203125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>0.927734375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>0.931640625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>0.94921875</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>0.939453125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>0.87109375</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>0.95703125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>0.931640625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>0.91015625</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>0.939453125</v>
       </c>
     </row>
   </sheetData>
@@ -401,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,7 +1891,502 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>1</v>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>0.7125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>0.659375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>0.6593749999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>0.653125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>0.68125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>0.7374999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>0.7375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>0.653125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>0.7156250000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>0.7125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>0.775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>0.634375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>0.76875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>0.684375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>0.703125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>0.653125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>0.7625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>0.740625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>0.7625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>0.7406250000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>0.63125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>0.73125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>0.63125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>0.7312500000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>0.7562500000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>0.7875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>0.8781249999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>0.7875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>0.74375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>0.7468750000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>0.703125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>0.7437499999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>0.73125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>0.58125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>0.678125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>0.721875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>0.728125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>0.696875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>0.7687499999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>0.725</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>0.68125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>0.640625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>0.7156250000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>0.70625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>0.7156250000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>0.771875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>0.703125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>0.621875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>0.76875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>0.7124999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>0.7375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>0.6781250000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>0.771875</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>0.7999999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>0.8531250000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>0.73125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>0.58125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>0.7687499999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>0.73125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>0.7687499999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>0.646875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>0.628125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>0.73125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>0.765625</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>0.771875</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>0.540625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>0.4625</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>0.746875</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>0.70625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>0.653125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>0.6968749999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>0.759375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>0.6531250000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>0.6968749999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>0.6656249999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>0.6187499999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -419,7 +2396,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,61 +2404,502 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>0.9444444444444444</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>0.9607843137254902</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1</v>
+        <v>0.5531249999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>0.5843750000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>0.521875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>0.5375000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>0.49375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>0.58125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>0.490625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>0.43125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>0.509375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>0.490625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>0.6625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>0.565625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>0.478125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>0.459375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>0.58125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>0.615625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>0.54375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>0.5875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>0.63125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>0.653125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>0.628125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>0.534375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>0.5375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>0.33125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>0.459375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>0.578125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>0.546875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>0.7375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>0.6124999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>0.4625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>0.55625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>0.55625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>0.321875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>0.575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>0.490625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>0.515625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>0.528125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>0.6468750000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>0.540625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>0.6312500000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>0.584375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>0.584375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>0.4875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>0.646875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>0.471875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>0.575</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>0.528125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>0.503125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>0.509375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>0.571875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>0.396875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>0.553125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>0.6531250000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>0.534375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>0.63125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>0.584375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>0.628125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>0.571875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>0.509375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>0.38125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>0.521875</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>0.4625</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>0.6375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>0.6906249999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>0.534375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>0.69375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>0.546875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>0.528125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>0.378125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>0.5406249999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>0.6593749999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>0.48125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>0.584375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>0.58125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>0.5562499999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>0.6000000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>0.528125</v>
       </c>
     </row>
   </sheetData>

--- a/output/auc_report.xlsx
+++ b/output/auc_report.xlsx
@@ -342,7 +342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -350,51 +350,1001 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>0.4307692307692308</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.4307692307692308</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.8153846153846154</v>
+        <v>0.323076923076923</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0.8923076923076922</v>
+        <v>0.5999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.8153846153846154</v>
+        <v>0.4153846153846154</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.9076923076923077</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.8769230769230769</v>
+        <v>0.4153846153846154</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.8153846153846154</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0.8461538461538461</v>
+        <v>0.5846153846153845</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
+        <v>0.6461538461538462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>0.6307692307692307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>0.4153846153846154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>0.7384615384615385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>0.4153846153846154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>0.4461538461538461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>0.5076923076923077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>0.5692307692307692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>0.4615384615384616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>0.4153846153846154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>0.6461538461538461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>0.4923076923076923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>0.8461538461538463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>0.723076923076923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>0.8615384615384615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>0.7538461538461538</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>0.7230769230769231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>0.7846153846153847</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>0.8461538461538461</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>0.7538461538461538</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>0.8461538461538461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>0.7384615384615385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>0.7538461538461539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>0.8769230769230769</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>0.5692307692307692</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>0.7384615384615385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>0.8307692307692308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>0.9076923076923076</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>0.9692307692307692</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>0.6461538461538462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>0.5076923076923077</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>0.7846153846153846</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>0.6307692307692307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>0.8615384615384616</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>0.8307692307692308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>0.7384615384615385</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>0.7076923076923076</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>0.6153846153846154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>0.8923076923076924</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>0.9076923076923077</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>0.8769230769230769</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>0.7076923076923076</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>0.7384615384615385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>0.8615384615384615</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>0.8461538461538461</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>0.7692307692307692</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>0.7384615384615385</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>0.7846153846153846</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>0.5538461538461539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>0.7692307692307692</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>0.8615384615384615</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>0.8307692307692307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>0.8615384615384616</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>0.7076923076923076</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>0.7846153846153846</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>0.7538461538461538</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>0.6923076923076923</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>0.9076923076923077</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>0.8307692307692307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>0.3692307692307692</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>0.7846153846153846</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>0.4615384615384616</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>0.6307692307692307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>0.8615384615384616</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>0.8461538461538461</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>0.8769230769230769</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>0.6615384615384615</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>0.8307692307692308</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>0.723076923076923</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>0.8461538461538463</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>0.8769230769230769</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>0.8769230769230769</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>0.7538461538461538</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>0.6153846153846154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>0.523076923076923</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>0.7230769230769231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>0.7076923076923076</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>0.5538461538461539</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>0.8461538461538463</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>0.8769230769230769</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>0.7846153846153846</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>0.5692307692307692</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>0.8307692307692308</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>0.6923076923076923</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>0.923076923076923</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>0.7076923076923077</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>0.4769230769230769</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>0.7076923076923076</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>0.7538461538461538</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>0.8615384615384616</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>0.8461538461538463</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>0.8307692307692307</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>0.9076923076923077</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>0.6615384615384615</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>0.9076923076923078</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>0.8615384615384616</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>0.5384615384615385</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>0.8769230769230769</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>0.6923076923076923</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>0.7846153846153846</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>0.7384615384615385</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>0.7076923076923076</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>0.7692307692307692</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>0.7384615384615385</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>0.8307692307692308</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>0.7230769230769231</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>0.9384615384615385</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>0.8615384615384616</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>0.9076923076923077</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>0.676923076923077</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>0.8307692307692308</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>0.8307692307692308</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>0.7384615384615385</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>0.7538461538461538</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>0.9692307692307693</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>0.8461538461538461</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>0.6615384615384615</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>0.7846153846153847</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>0.8307692307692308</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>0.7846153846153846</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>0.7230769230769231</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>0.9692307692307692</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>0.6923076923076923</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>0.8461538461538461</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>0.923076923076923</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>0.8615384615384616</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>0.676923076923077</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>0.923076923076923</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>0.8923076923076922</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>0.8461538461538461</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <v>0.7846153846153846</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>0.5846153846153845</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>0.8923076923076924</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <v>0.8615384615384616</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>0.8769230769230769</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>0.8307692307692308</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>0.5846153846153846</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>0.8307692307692308</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>0.7538461538461538</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>0.8769230769230769</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <v>0.4307692307692307</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <v>0.7230769230769231</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>0.9384615384615385</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>0.4769230769230769</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <v>0.5384615384615384</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <v>0.7846153846153847</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>0.7538461538461538</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <v>0.9692307692307693</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>0.7384615384615385</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>0.8769230769230769</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <v>0.8461538461538463</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <v>0.6307692307692307</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194">
+        <v>0.8769230769230769</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>0.6461538461538461</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <v>0.7384615384615385</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198">
+        <v>0.8153846153846154</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
+        <v>0.8307692307692307</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200">
         <v>0.9230769230769231</v>
       </c>
     </row>
@@ -405,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A200"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,52 +1363,1002 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>0.4285714285714286</v>
+        <v>0.3896103896103895</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.6493506493506493</v>
+        <v>0.4805194805194805</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.6233766233766234</v>
+        <v>0.3246753246753247</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0.7792207792207793</v>
+        <v>0.4805194805194805</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.8051948051948052</v>
+        <v>0.6753246753246753</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.5324675324675324</v>
+        <v>0.4415584415584415</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.8051948051948051</v>
+        <v>0.4805194805194805</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.8311688311688312</v>
+        <v>0.6753246753246753</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0.8311688311688311</v>
+        <v>0.5974025974025974</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
+        <v>0.7012987012987013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>0.5584415584415585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>0.5584415584415585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>0.7792207792207793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>0.8831168831168831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>0.6103896103896104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>0.3376623376623377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
         <v>0.6883116883116883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>0.6753246753246753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>0.883116883116883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>0.8051948051948052</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>0.6103896103896104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>0.6753246753246753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>0.8441558441558441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>0.8961038961038961</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>0.8831168831168831</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>0.8311688311688312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>0.8051948051948052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>0.7792207792207793</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>0.8961038961038961</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>0.8701298701298702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>0.7662337662337662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>0.8961038961038961</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>0.9090909090909092</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>0.8311688311688312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>0.7792207792207791</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>0.935064935064935</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>0.6883116883116883</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>0.9090909090909092</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>0.7532467532467532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>0.8181818181818181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>0.8571428571428572</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>0.8051948051948052</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>0.7402597402597403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>0.7662337662337663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>0.8181818181818181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>0.6753246753246753</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>0.7792207792207793</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>0.8441558441558441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>0.7532467532467532</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>0.7272727272727272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>0.935064935064935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>0.7792207792207791</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>0.8181818181818181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>0.7792207792207793</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>0.4545454545454546</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>0.5844155844155844</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>0.8441558441558441</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>0.7922077922077921</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>0.8831168831168832</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>0.7662337662337662</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>0.8961038961038961</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>0.6883116883116883</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>0.7272727272727273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>0.8181818181818181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>0.8571428571428572</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>0.935064935064935</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>0.7662337662337662</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>0.7662337662337663</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>0.8571428571428572</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>0.8311688311688311</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>0.935064935064935</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>0.8181818181818181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>0.8051948051948051</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>0.8051948051948051</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>0.7922077922077921</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>0.7792207792207793</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>0.8961038961038961</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>0.7922077922077921</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>0.8441558441558441</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>0.7922077922077921</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>0.8311688311688311</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>0.8701298701298701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>0.6493506493506493</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>0.7922077922077921</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>0.7272727272727272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>0.8051948051948051</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>0.7272727272727273</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>0.7272727272727273</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>0.7532467532467533</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>0.8051948051948052</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>0.7922077922077921</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>0.7402597402597402</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>0.8831168831168831</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>0.8311688311688311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>0.7792207792207793</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>0.935064935064935</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>0.8311688311688311</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>0.8441558441558441</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>0.8311688311688311</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>0.7922077922077922</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>0.8051948051948051</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>0.8571428571428572</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>0.7662337662337662</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>0.7012987012987013</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>0.7662337662337662</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>0.961038961038961</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>0.8441558441558441</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>0.7662337662337662</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>0.4935064935064935</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>0.7662337662337662</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>0.6753246753246753</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>0.7792207792207793</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>0.7662337662337663</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>0.8181818181818181</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>0.7402597402597402</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>0.7012987012987013</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>0.6493506493506493</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>0.8961038961038961</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>0.8311688311688311</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>0.7402597402597403</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>0.8961038961038961</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>0.7922077922077922</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>0.8181818181818181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>0.6883116883116882</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>0.7272727272727273</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>0.5974025974025974</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>0.8311688311688311</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>0.8961038961038961</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>0.935064935064935</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>0.8181818181818182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>0.7272727272727273</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>0.8701298701298701</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>0.8311688311688311</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>0.8701298701298701</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>0.8311688311688311</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>0.8051948051948051</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>0.7662337662337662</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>0.8441558441558441</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>0.8701298701298701</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>0.3896103896103896</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>0.8961038961038961</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>0.7922077922077922</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>0.8571428571428572</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>0.7662337662337662</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>0.7012987012987013</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>0.8441558441558441</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>0.6753246753246753</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>0.6623376623376623</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>0.6753246753246753</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>0.7662337662337662</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>0.8441558441558441</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>0.9220779220779221</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>0.8961038961038961</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>0.8051948051948052</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>0.7532467532467533</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>0.8831168831168831</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>0.8051948051948052</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>0.8961038961038961</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <v>0.6883116883116883</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>0.7272727272727273</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <v>0.7922077922077921</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>0.8701298701298701</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>0.8701298701298701</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>0.7532467532467533</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>0.7662337662337662</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>0.8181818181818181</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>0.6753246753246753</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <v>0.8571428571428572</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <v>0.7792207792207793</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>0.5974025974025974</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>0.8701298701298701</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>0.7272727272727272</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <v>0.7662337662337662</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <v>0.7532467532467532</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>0.7532467532467533</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <v>0.7922077922077922</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>0.8571428571428572</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>0.8311688311688311</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <v>0.8701298701298701</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <v>0.8701298701298701</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194">
+        <v>0.8181818181818181</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>0.7402597402597402</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <v>0.8701298701298701</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197">
+        <v>0.8181818181818181</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198">
+        <v>0.6103896103896104</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
+        <v>0.8441558441558441</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200">
+        <v>0.8051948051948051</v>
       </c>
     </row>
   </sheetData>
@@ -468,7 +2368,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A200"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -476,52 +2376,1002 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>0.4999999999999999</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.3888888888888889</v>
+        <v>0.7361111111111112</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.736111111111111</v>
+        <v>0.7777777777777777</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0.5972222222222222</v>
+        <v>0.6805555555555556</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.7777777777777778</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.5833333333333334</v>
+        <v>0.638888888888889</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.8194444444444444</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.8055555555555555</v>
+        <v>0.6388888888888888</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0.5972222222222222</v>
+        <v>0.5138888888888888</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
+        <v>0.736111111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>0.6388888888888888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>0.8055555555555556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>0.638888888888889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>0.7916666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>0.8472222222222223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>0.5833333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>0.7361111111111112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>0.5694444444444444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>0.888888888888889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>0.8194444444444444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>0.9166666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>0.8472222222222222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>0.8055555555555556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>0.7777777777777778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>0.9305555555555556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>0.8472222222222223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>0.986111111111111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>0.6944444444444444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>0.7361111111111112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>0.8194444444444444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>0.888888888888889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>0.861111111111111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>0.7638888888888888</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>0.7777777777777778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>0.8472222222222223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>0.8055555555555556</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>0.9305555555555556</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>0.9305555555555556</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>0.7638888888888888</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>0.986111111111111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
         <v>0.7222222222222222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>0.7916666666666666</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>0.7638888888888888</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>0.861111111111111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>0.9166666666666667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>0.8194444444444444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>0.861111111111111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>0.8194444444444444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>0.8055555555555556</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>0.9722222222222223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>0.888888888888889</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>0.7916666666666666</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>0.7916666666666667</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>0.8611111111111112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>0.8333333333333333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>0.888888888888889</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>0.8194444444444444</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>0.9027777777777777</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>0.9027777777777778</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>0.9027777777777778</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>0.8611111111111112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>0.8194444444444444</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>0.8472222222222222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>0.7916666666666666</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>0.8611111111111112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>0.7777777777777778</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>0.9583333333333334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>0.9722222222222223</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>0.7638888888888888</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>0.9305555555555556</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>0.8472222222222222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>0.6666666666666667</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>0.9027777777777778</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>0.8055555555555556</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>0.861111111111111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>0.7222222222222222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>0.9722222222222222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>0.986111111111111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>0.7777777777777778</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>0.9305555555555556</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>0.8472222222222222</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>0.7222222222222222</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>0.9722222222222223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>0.9027777777777777</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>0.7777777777777778</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>0.9722222222222223</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>0.9583333333333334</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>0.9027777777777778</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>0.888888888888889</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>0.9722222222222223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>0.9027777777777778</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>0.9166666666666667</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>0.986111111111111</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>0.9027777777777778</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>0.7638888888888888</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>0.9444444444444445</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>0.9027777777777778</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>0.8472222222222222</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>0.861111111111111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>0.7916666666666667</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>0.986111111111111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>0.7777777777777777</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>0.888888888888889</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>0.9166666666666667</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>0.9305555555555556</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>0.8055555555555556</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>0.7638888888888888</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>0.888888888888889</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>0.7083333333333333</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>0.6527777777777777</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <v>0.8055555555555556</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <v>0.861111111111111</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <v>0.8472222222222222</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>0.888888888888889</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>0.8472222222222221</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>0.9444444444444445</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>0.8472222222222222</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>0.8333333333333333</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>0.9722222222222223</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <v>0.9305555555555556</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <v>0.7777777777777778</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>0.7083333333333334</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>0.8194444444444444</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>0.9027777777777778</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <v>0.9166666666666667</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>0.9444444444444445</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>0.7083333333333334</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>0.986111111111111</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <v>0.9027777777777778</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <v>0.7638888888888888</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194">
+        <v>0.888888888888889</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>0.8055555555555556</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <v>0.9444444444444445</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198">
+        <v>0.7916666666666666</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
+        <v>0.9166666666666667</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200">
+        <v>0.9444444444444444</v>
       </c>
     </row>
   </sheetData>

--- a/output/auc_report.xlsx
+++ b/output/auc_report.xlsx
@@ -342,7 +342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -350,77 +350,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>0.3846153846153846</v>
+        <v>0.7846153846153847</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.6153846153846154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>0.4384615384615385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>0.7153846153846154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>0.7692307692307693</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>0.6615384615384615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>0.6307692307692307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>0.5461538461538461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>0.7076923076923077</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>0.5076923076923077</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>0.6153846153846154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>0.676923076923077</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>0.3153846153846153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>0.2230769230769231</v>
+        <v>0.7384615384615385</v>
       </c>
     </row>
   </sheetData>
@@ -430,7 +365,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -438,77 +373,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>0.1948051948051948</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.4675324675324675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>0.4675324675324675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>0.6428571428571428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>0.6298701298701299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>0.7012987012987013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>0.8181818181818181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>0.7532467532467533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>0.6363636363636364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>0.7662337662337663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>0.6363636363636365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>0.8766233766233766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>0.7662337662337663</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>0.7402597402597402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>0.7012987012987013</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +388,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,77 +396,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>0.3611111111111111</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>0.5416666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>0.4722222222222222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>0.7083333333333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>0.3819444444444445</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>0.5972222222222222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>0.5972222222222222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>0.4513888888888889</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>0.4305555555555555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>0.6180555555555556</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>0.6041666666666666</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
   </sheetData>

--- a/output/auc_report.xlsx
+++ b/output/auc_report.xlsx
@@ -342,7 +342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -350,12 +350,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>0.7846153846153847</v>
+        <v>0.676923076923077</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.7384615384615385</v>
+        <v>0.9846153846153847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>0.9846153846153847</v>
       </c>
     </row>
   </sheetData>
@@ -365,7 +370,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -373,11 +378,16 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
         <v>1</v>
       </c>
     </row>
@@ -388,7 +398,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,12 +406,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>0.8055555555555556</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.9444444444444444</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/auc_report.xlsx
+++ b/output/auc_report.xlsx
@@ -342,7 +342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -355,12 +355,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.9846153846153847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.9846153846153847</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>0.9538461538461538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>0.9538461538461538</v>
       </c>
     </row>
   </sheetData>
@@ -370,7 +385,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -378,7 +393,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>1</v>
+        <v>0.8701298701298701</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -388,6 +403,21 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
         <v>1</v>
       </c>
     </row>
@@ -398,7 +428,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,7 +436,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>0.9166666666666666</v>
+        <v>0.9722222222222223</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -417,6 +447,21 @@
     <row r="3" spans="1:1">
       <c r="A3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>0.9722222222222222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>0.9444444444444444</v>
       </c>
     </row>
   </sheetData>
